--- a/src/test/testdaten_update_adresse/Update Adresse.xlsx
+++ b/src/test/testdaten_update_adresse/Update Adresse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_update_adresse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF2A57-9D20-4C0D-9119-E8FB0CE4CBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB5B50-C0EE-4BF3-B832-3BD4852FDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Personalnummer</t>
   </si>
   <si>
-    <t>neue Straße</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Ausland</t>
+  </si>
+  <si>
+    <t>neue Strasse</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,15 +444,15 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,15 +476,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,22 +541,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
